--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:05 AM</t>
+    <t>Saturday, 7 June, 2025 9:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:19 AM</t>
+    <t>Saturday, 7 June, 2025 9:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:21 AM</t>
+    <t>Saturday, 7 June, 2025 9:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:29 AM</t>
+    <t>Saturday, 7 June, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:59 AM</t>
+    <t>Saturday, 7 June, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:23 AM</t>
+    <t>Saturday, 7 June, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:24 AM</t>
+    <t>Saturday, 7 June, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:28 AM</t>
+    <t>Saturday, 7 June, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:54 AM</t>
+    <t>Saturday, 7 June, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:06 AM</t>
+    <t>Saturday, 7 June, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:08 AM</t>
+    <t>Saturday, 7 June, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:12 AM</t>
+    <t>Saturday, 7 June, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:15 AM</t>
+    <t>Saturday, 7 June, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:18 AM</t>
+    <t>Saturday, 7 June, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:43 AM</t>
+    <t>Saturday, 7 June, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:49 AM</t>
+    <t>Saturday, 7 June, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:04 PM</t>
+    <t>Saturday, 7 June, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:24 PM</t>
+    <t>Saturday, 7 June, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:48 PM</t>
+    <t>Saturday, 7 June, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:50 PM</t>
+    <t>Saturday, 7 June, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:52 PM</t>
+    <t>Saturday, 7 June, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:53 PM</t>
+    <t>Saturday, 7 June, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:54 PM</t>
+    <t>Saturday, 7 June, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 12:58 PM</t>
+    <t>Saturday, 7 June, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:05 PM</t>
+    <t>Saturday, 7 June, 2025 1:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:17 PM</t>
+    <t>Saturday, 7 June, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:21 PM</t>
+    <t>Saturday, 7 June, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:28 PM</t>
+    <t>Saturday, 7 June, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:30 PM</t>
+    <t>Saturday, 7 June, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 1:36 PM</t>
+    <t>Saturday, 7 June, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 2:07 PM</t>
+    <t>Saturday, 7 June, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:02 PM</t>
+    <t>Saturday, 7 June, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:03 PM</t>
+    <t>Saturday, 7 June, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:08 PM</t>
+    <t>Saturday, 7 June, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:12 PM</t>
+    <t>Saturday, 7 June, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:20 PM</t>
+    <t>Saturday, 7 June, 2025 3:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:27 PM</t>
+    <t>Saturday, 7 June, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-06_00-00.xlsx
+++ b/DaySale_2025-06-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 3:34 PM</t>
+    <t>Saturday, 7 June, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
